--- a/data/Groups.xlsx
+++ b/data/Groups.xlsx
@@ -1,31 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CA7FC1-41FC-4704-AF86-8B6978B3E29C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohitm\git\DACAutomation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{C36715E9-E31F-4A35-B448-B257365C5465}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{F5DA3433-3288-47F3-8B87-500588D53752}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>GroupName</t>
-  </si>
-  <si>
-    <t>GroupDescription</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>Field</t>
@@ -34,23 +47,34 @@
     <t>Condition</t>
   </si>
   <si>
-    <t>Search</t>
+    <t>Countries can be filtered based on first letter of country</t>
+  </si>
+  <si>
+    <t>Search_Term</t>
+  </si>
+  <si>
+    <t>Country_Group_N</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Location Number</t>
+  </si>
+  <si>
+    <t>starts with</t>
+  </si>
+  <si>
+    <t>Business Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -74,35 +98,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -119,10 +126,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -131,7 +138,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -143,7 +150,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -157,7 +164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -190,9 +197,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -225,6 +249,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -286,21 +327,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -317,7 +358,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -369,83 +410,76 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD1C965-25A0-4170-BB64-5E88DC0DD19E}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="51.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+      <c r="E1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/Groups.xlsx
+++ b/data/Groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohitm\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C36715E9-E31F-4A35-B448-B257365C5465}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{748D1C8E-7AC4-459C-B325-1485E180A6FC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{F5DA3433-3288-47F3-8B87-500588D53752}" yWindow="-120"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Group</t>
   </si>
@@ -66,6 +66,21 @@
   </si>
   <si>
     <t>Business Name</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>ends with</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -418,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD1C965-25A0-4170-BB64-5E88DC0DD19E}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,10 +487,21 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/Groups.xlsx
+++ b/data/Groups.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohitm\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{748D1C8E-7AC4-459C-B325-1485E180A6FC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{E9A4380F-827E-4399-B17D-82C92671DDC8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{F5DA3433-3288-47F3-8B87-500588D53752}" yWindow="-120"/>
+    <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{F5DA3433-3288-47F3-8B87-500588D53752}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Group</t>
   </si>
@@ -81,6 +82,39 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Country_Group_A</t>
+  </si>
+  <si>
+    <t>Countries name starting with A</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>does not end with</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Report Group</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>AND</t>
   </si>
 </sst>
 </file>
@@ -433,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD1C965-25A0-4170-BB64-5E88DC0DD19E}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,9 +480,10 @@
     <col min="3" max="3" customWidth="true" width="22.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="21.5703125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +499,11 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -481,8 +519,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -492,8 +533,11 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>13</v>
       </c>
@@ -508,4 +552,92 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B825998-7BDD-4224-A8EA-B73730828216}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="51.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/data/Groups.xlsx
+++ b/data/Groups.xlsx
@@ -1,31 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CA7FC1-41FC-4704-AF86-8B6978B3E29C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohitm\git\DACAutomation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{E9A4380F-827E-4399-B17D-82C92671DDC8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{F5DA3433-3288-47F3-8B87-500588D53752}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>GroupName</t>
-  </si>
-  <si>
-    <t>GroupDescription</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>Field</t>
@@ -34,23 +48,82 @@
     <t>Condition</t>
   </si>
   <si>
-    <t>Search</t>
+    <t>Countries can be filtered based on first letter of country</t>
+  </si>
+  <si>
+    <t>Search_Term</t>
+  </si>
+  <si>
+    <t>Country_Group_N</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Location Number</t>
+  </si>
+  <si>
+    <t>starts with</t>
+  </si>
+  <si>
+    <t>Business Name</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>ends with</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Country_Group_A</t>
+  </si>
+  <si>
+    <t>Countries name starting with A</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>does not end with</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Report Group</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>AND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -74,35 +147,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -119,10 +175,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -131,7 +187,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -143,7 +199,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -157,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -190,9 +246,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -225,6 +298,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -286,21 +376,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -317,7 +407,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -369,83 +459,185 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD1C965-25A0-4170-BB64-5E88DC0DD19E}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="51.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B825998-7BDD-4224-A8EA-B73730828216}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="51.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/data/Groups.xlsx
+++ b/data/Groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohitm\git\DACAutomation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{E9A4380F-827E-4399-B17D-82C92671DDC8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C9CDD182-2D49-49CB-9658-CF6E38BEF49E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{F5DA3433-3288-47F3-8B87-500588D53752}" yWindow="-120"/>
+    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{F5DA3433-3288-47F3-8B87-500588D53752}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="71">
   <si>
     <t>Group</t>
   </si>
@@ -48,21 +48,9 @@
     <t>Condition</t>
   </si>
   <si>
-    <t>Countries can be filtered based on first letter of country</t>
-  </si>
-  <si>
     <t>Search_Term</t>
   </si>
   <si>
-    <t>Country_Group_N</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Location Number</t>
-  </si>
-  <si>
     <t>starts with</t>
   </si>
   <si>
@@ -115,6 +103,150 @@
   </si>
   <si>
     <t>AND</t>
+  </si>
+  <si>
+    <t>#?1test</t>
+  </si>
+  <si>
+    <t>1_test</t>
+  </si>
+  <si>
+    <t>1test</t>
+  </si>
+  <si>
+    <t>aabbcc</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>abcdetest</t>
+  </si>
+  <si>
+    <t>abcdtest</t>
+  </si>
+  <si>
+    <t>atest</t>
+  </si>
+  <si>
+    <t>btest</t>
+  </si>
+  <si>
+    <t>Countries_PAK</t>
+  </si>
+  <si>
+    <t>Countries_PAK2</t>
+  </si>
+  <si>
+    <t>dell</t>
+  </si>
+  <si>
+    <t>firstReportGroup_dec</t>
+  </si>
+  <si>
+    <t>g0408</t>
+  </si>
+  <si>
+    <t>GR_NewTest</t>
+  </si>
+  <si>
+    <t>group_A</t>
+  </si>
+  <si>
+    <t>group19</t>
+  </si>
+  <si>
+    <t>GroupJP</t>
+  </si>
+  <si>
+    <t>GroupJP2</t>
+  </si>
+  <si>
+    <t>ie11 grp</t>
+  </si>
+  <si>
+    <t>india1</t>
+  </si>
+  <si>
+    <t>MBV_Test1</t>
+  </si>
+  <si>
+    <t>MBV_Test2</t>
+  </si>
+  <si>
+    <t>mtest</t>
+  </si>
+  <si>
+    <t>NEW_CY</t>
+  </si>
+  <si>
+    <t>NEW_KE</t>
+  </si>
+  <si>
+    <t>NewGr_Yem</t>
+  </si>
+  <si>
+    <t>Reg_One</t>
+  </si>
+  <si>
+    <t>ReportGroup_Test</t>
+  </si>
+  <si>
+    <t>ReportN</t>
+  </si>
+  <si>
+    <t>REWT</t>
+  </si>
+  <si>
+    <t>shihaz</t>
+  </si>
+  <si>
+    <t>stest</t>
+  </si>
+  <si>
+    <t>SWOOP_Final_One</t>
+  </si>
+  <si>
+    <t>SWOOP_Final_Two</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Test Group Parsley</t>
+  </si>
+  <si>
+    <t>Test_104643</t>
+  </si>
+  <si>
+    <t>test_11112019</t>
+  </si>
+  <si>
+    <t>Test_Demo</t>
+  </si>
+  <si>
+    <t>test_group2</t>
+  </si>
+  <si>
+    <t>Test_IE11</t>
+  </si>
+  <si>
+    <t>Test_N</t>
+  </si>
+  <si>
+    <t>Test_NEW_Group</t>
+  </si>
+  <si>
+    <t>Test_NewG</t>
   </si>
 </sst>
 </file>
@@ -122,13 +254,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,8 +289,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -467,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD1C965-25A0-4170-BB64-5E88DC0DD19E}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,55 +636,276 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -556,10 +916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B825998-7BDD-4224-A8EA-B73730828216}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,58 +946,300 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/Groups.xlsx
+++ b/data/Groups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohitm\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{E9A4380F-827E-4399-B17D-82C92671DDC8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B4EB04F9-7B47-4FBB-8EE7-5CCC6414A672}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{F5DA3433-3288-47F3-8B87-500588D53752}" yWindow="-120"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Group</t>
   </si>
@@ -57,64 +57,61 @@
     <t>Country_Group_N</t>
   </si>
   <si>
+    <t>starts with</t>
+  </si>
+  <si>
+    <t>Business Name</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>ends with</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Country_Group_A</t>
+  </si>
+  <si>
+    <t>Countries name starting with A</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>does not end with</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Report Group</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Location Number</t>
-  </si>
-  <si>
-    <t>starts with</t>
-  </si>
-  <si>
-    <t>Business Name</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>contains</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>ends with</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Country_Group_A</t>
-  </si>
-  <si>
-    <t>Countries name starting with A</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>does not end with</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Report Group</t>
-  </si>
-  <si>
-    <t>Connector</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>AND</t>
+    <t>Postal Code</t>
   </si>
 </sst>
 </file>
@@ -470,7 +467,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -511,41 +508,41 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +556,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,52 +586,52 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
